--- a/experiments/evaluation/llm-based/roberta-base_15/original_remove/rem5/correct_predictions.xlsx
+++ b/experiments/evaluation/llm-based/roberta-base_15/original_remove/rem5/correct_predictions.xlsx
@@ -471,33 +471,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>High wind velocity</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -506,28 +506,28 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ensure the aircraft remains within your line of sight and fly with caution</t>
+          <t>High wind velocity</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -536,12 +536,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fly with caution and land in a safe place ASAP</t>
+          <t>Ensure the aircraft remains within your line of sight and fly with caution</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>19-28</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -561,17 +561,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Fly with caution and land in a safe place ASAP</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>19-28</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
